--- a/dataCleaner/Case-MovingDataInRoom/figures/tag0_2022-02-04_time.xlsx
+++ b/dataCleaner/Case-MovingDataInRoom/figures/tag0_2022-02-04_time.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,194 +446,194 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44596.54305555556</v>
+        <v>44596.5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44596.59027777778</v>
+        <v>44596.50034722222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44596.59236111111</v>
+        <v>44596.59131944444</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44596.61666666667</v>
+        <v>44596.62777777778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>44596.63680555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44596.66805555556</v>
+        <v>44596.66840277778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44596.71944444445</v>
+        <v>44596.69409722222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44596.73472222222</v>
+        <v>44596.69513888889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44596.80833333333</v>
+        <v>44596.71944444445</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44596.84583333333</v>
+        <v>44596.73541666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44596.45347222222</v>
+        <v>44596.74340277778</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44596.45625</v>
+        <v>44596.75347222222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44596.67152777778</v>
+        <v>44596.80659722222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44596.69236111111</v>
+        <v>44596.84618055556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>44596.35069444445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44596.36388888889</v>
+        <v>44596.36458333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>44596.38402777778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44596.3875</v>
+        <v>44596.49965277778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44596.39583333334</v>
+        <v>44596.52222222222</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44596.49791666667</v>
+        <v>44596.60104166667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44596.52222222222</v>
+        <v>44596.628125</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44596.54166666666</v>
+        <v>44596.64861111111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44596.69791666666</v>
+        <v>44596.66666666666</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44596.71805555555</v>
+        <v>44596.67118055555</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44596.74166666667</v>
+        <v>44596.69479166667</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44596.74930555555</v>
+        <v>44596.72083333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44596.78888888889</v>
+        <v>44596.72986111111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44596.8</v>
+        <v>44596.753125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44596.36458333334</v>
+        <v>44596.77986111111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44596.38263888889</v>
+        <v>44596.80590277778</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44596.45694444444</v>
+        <v>44596.815625</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44596.45763888889</v>
+        <v>44596.81701388889</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>44596.50069444445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44596.52083333334</v>
+        <v>44596.52152777778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44596.75416666667</v>
+        <v>44596.75381944444</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>44596.77916666667</v>
@@ -641,90 +641,90 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44596.61944444444</v>
+        <v>44596.67152777778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44596.62569444445</v>
+        <v>44596.69270833334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44596.49861111111</v>
+        <v>44596.36493055556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44596.49930555555</v>
+        <v>44596.38333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44596.59097222222</v>
+        <v>44596.45381944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44596.60069444445</v>
+        <v>44596.45694444444</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44596.62986111111</v>
+        <v>44596.63159722222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44596.63958333333</v>
+        <v>44596.63506944444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44596.69444444445</v>
+        <v>44596.80208333334</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44596.69722222222</v>
+        <v>44596.80486111111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44596.7375</v>
+        <v>44596.35694444444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44596.73888888889</v>
+        <v>44596.359375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44596.80625</v>
+        <v>44596.41631944444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44596.80763888889</v>
+        <v>44596.41805555556</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44596.63125</v>
+        <v>44596.78402777778</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44596.63402777778</v>
+        <v>44596.78541666667</v>
       </c>
     </row>
     <row r="28">
@@ -732,76 +732,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44596.39375</v>
+        <v>44596.64479166667</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44596.39444444444</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>44596.44930555556</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>44596.45069444444</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>44596.48402777778</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>44596.48472222222</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>12</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>44596.80208333334</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>44596.80416666667</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>44596.78541666667</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>44596.78819444445</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>14</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>44596.73611111111</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>44596.74097222222</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>15</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>44596.38819444444</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>44596.39305555556</v>
+        <v>44596.64965277778</v>
       </c>
     </row>
   </sheetData>
